--- a/014.SQL학습/dramaTable.xlsx
+++ b/014.SQL학습/dramaTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>컬럼명</t>
   </si>
@@ -54,85 +54,94 @@
     <t>해당 드라마의 주연들</t>
   </si>
   <si>
+    <t>방송요일</t>
+  </si>
+  <si>
+    <t>방송시작시간</t>
+  </si>
+  <si>
+    <t>드라마 총횟수</t>
+  </si>
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>데이터 입력날짜</t>
+  </si>
+  <si>
+    <t>DB필드명</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>dname</t>
+  </si>
+  <si>
+    <t>actors</t>
+  </si>
+  <si>
+    <t>broad</t>
+  </si>
+  <si>
+    <t>gubun</t>
+  </si>
+  <si>
+    <t>stime</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>idate</t>
+  </si>
+  <si>
+    <t>필드 type</t>
+  </si>
+  <si>
+    <t>숫자형</t>
+  </si>
+  <si>
+    <t>문자형</t>
+  </si>
+  <si>
+    <t>날짜형</t>
+  </si>
+  <si>
+    <t>data형</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>드라마 테이블 설계</t>
+  </si>
+  <si>
+    <t>문자형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>드라마 방송사</t>
-  </si>
-  <si>
-    <t>방송요일</t>
-  </si>
-  <si>
-    <t>방송시작시간</t>
-  </si>
-  <si>
-    <t>드라마 총횟수</t>
-  </si>
-  <si>
-    <t>날짜</t>
-  </si>
-  <si>
-    <t>데이터 입력날짜</t>
-  </si>
-  <si>
-    <t>DB필드명</t>
-  </si>
-  <si>
-    <t>idx</t>
-  </si>
-  <si>
-    <t>dname</t>
-  </si>
-  <si>
-    <t>actors</t>
-  </si>
-  <si>
-    <t>broad</t>
-  </si>
-  <si>
-    <t>gubun</t>
-  </si>
-  <si>
-    <t>stime</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>idate</t>
-  </si>
-  <si>
-    <t>필드 type</t>
-  </si>
-  <si>
-    <t>숫자형</t>
-  </si>
-  <si>
-    <t>문자형</t>
-  </si>
-  <si>
-    <t>날짜형</t>
-  </si>
-  <si>
-    <t>data형</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>드라마 테이블 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -227,14 +236,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +549,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,165 +559,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
